--- a/biology/Botanique/Letestua/Letestua.xlsx
+++ b/biology/Botanique/Letestua/Letestua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Letestua est un genre de plantes à fleurs de la famille des Sapotaceae. Ce sont des arbres originaires d'Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Congotali.
 Kong-Afane</t>
@@ -542,9 +556,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Letestua a pour synonyme hétérotypique[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Letestua a pour synonyme hétérotypique :
 Pierreodendron A.Chev., Vég. Ut. Afr. Trop. Franç. 9: 257 (1917).
 Il ne faut pas confondre avec Pierreodendron Engl., 1907 qui est un genre de la famille des Simaroubaceae.
 </t>
@@ -575,11 +591,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 août 2020)[3], The Plant List            (8 août 2020)[4] et World Checklist of Selected Plant Families (WCSP)  (8 août 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 août 2020), The Plant List            (8 août 2020) et World Checklist of Selected Plant Families (WCSP)  (8 août 2020) :
 Letestua durissima (A.Chev.) Lecomte (1920)
-Selon Tropicos                                           (8 août 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 août 2020) (Attention liste brute contenant possiblement des synonymes) :
 Letestua durissima (A. Chev.) Lecomte
 Letestua floribunda Lecomte</t>
         </is>
@@ -609,9 +627,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Letestua durissima est commercialisé sous le nom de Congotali. Sa densité de 1,1 est plus élevée que celle de l'eau, et donc ce bois ne flotte pas[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Letestua durissima est commercialisé sous le nom de Congotali. Sa densité de 1,1 est plus élevée que celle de l'eau, et donc ce bois ne flotte pas.
 </t>
         </is>
       </c>
@@ -641,6 +661,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
